--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2307832.696200712</v>
+        <v>2326207.385666833</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>127.0784597613395</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>295.2947340238487</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.86965341517841</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>54.24424573300413</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>257.9991486369369</v>
+        <v>347.2046594407408</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>110.6814354608464</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>341.6332896981653</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748116</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>9.702759483544446</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.6271181085181</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491423</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>200.5196897930038</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1424,7 +1424,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>249.8285562032638</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>12.25082275066701</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>214.5040975955719</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>195.0322324903996</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>131.0780187496739</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,13 +2059,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.4852479619989</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>185.5567217963035</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>87.95056933639118</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>40.92702031674596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2606,10 +2606,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>203.843519215193</v>
+        <v>78.1963570872848</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.27261542129938</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710093</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,19 +3077,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>122.6519788371604</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710082</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,22 +3475,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>192.6211591710428</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.2307149067358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>48.72579877709996</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3718,16 +3718,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3749,16 +3749,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656055</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>116.864522550184</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.526976800218</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710089</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4135,13 +4135,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>104.8660878098748</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4189,16 +4189,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>203.8435192151962</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.915471247702</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.915471247702</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D2" t="n">
-        <v>1491.915471247702</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4367,13 +4367,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.96283375488809</v>
+        <v>418.6523285934727</v>
       </c>
       <c r="C4" t="n">
-        <v>68.96283375488809</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D4" t="n">
-        <v>68.96283375488809</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>68.96283375488809</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>68.96283375488809</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>68.96283375488809</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>68.96283375488809</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>471.4038777286579</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>471.4038777286579</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X4" t="n">
-        <v>471.4038777286579</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y4" t="n">
-        <v>250.6112985851278</v>
+        <v>418.6523285934727</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1268.68094731003</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4580,37 +4580,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278602</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017522</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1655.280787374151</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,7 +4732,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4741,34 +4741,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U7" t="n">
-        <v>598.044640063212</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="V7" t="n">
-        <v>343.3601518573251</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036446</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>471.4038777286581</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1394.624369323446</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733133</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224085</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642691</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791254</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018225</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548718</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862888</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862888</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862888</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862888</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592774</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.708500331694</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y8" t="n">
-        <v>1739.708500331694</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036449</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614631</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571352</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014718</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035062</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.0636002298173</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C10" t="n">
-        <v>348.1274173019104</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D10" t="n">
-        <v>198.0107778895747</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E10" t="n">
-        <v>198.0107778895747</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F10" t="n">
-        <v>198.0107778895747</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G10" t="n">
-        <v>198.0107778895747</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036449</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477913</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658214</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502506</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594909</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600571</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600571</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600571</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600571</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600571</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600571</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600571</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600571</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600571</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="11">
@@ -5027,25 +5027,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5054,19 +5054,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>582.2416896507652</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="C13" t="n">
-        <v>413.3055067228584</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1246.564193584909</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>991.8797053790223</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W13" t="n">
-        <v>991.8797053790223</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X13" t="n">
-        <v>763.890154481005</v>
+        <v>1375.466598684711</v>
       </c>
       <c r="Y13" t="n">
-        <v>763.890154481005</v>
+        <v>1154.674019541181</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5264,25 +5264,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5291,37 +5291,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>881.753191430675</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C16" t="n">
-        <v>712.8170085027681</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>562.7003690904323</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1171.170361467636</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1171.170361467636</v>
+        <v>990.9189019944725</v>
       </c>
       <c r="V16" t="n">
-        <v>1171.170361467636</v>
+        <v>990.9189019944725</v>
       </c>
       <c r="W16" t="n">
-        <v>881.753191430675</v>
+        <v>990.9189019944725</v>
       </c>
       <c r="X16" t="n">
-        <v>881.753191430675</v>
+        <v>762.9293510964552</v>
       </c>
       <c r="Y16" t="n">
-        <v>881.753191430675</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5528,37 +5528,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1366.514231416818</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1142.728816206324</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>853.6001774198821</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>853.6001774198821</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>564.1830073829216</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5744,34 +5744,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.3450129705744</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C22" t="n">
-        <v>527.3450129705744</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>527.3450129705744</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241864</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881687978</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799271</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471098</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974657</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980054</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585737</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557893</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119719</v>
       </c>
       <c r="S22" t="n">
-        <v>1299.436222111439</v>
+        <v>1187.921157035271</v>
       </c>
       <c r="T22" t="n">
-        <v>1299.436222111439</v>
+        <v>1187.921157035271</v>
       </c>
       <c r="U22" t="n">
-        <v>1299.436222111439</v>
+        <v>1187.921157035271</v>
       </c>
       <c r="V22" t="n">
-        <v>1044.751733905552</v>
+        <v>1187.921157035271</v>
       </c>
       <c r="W22" t="n">
-        <v>755.3345638685918</v>
+        <v>898.5039869983102</v>
       </c>
       <c r="X22" t="n">
-        <v>527.3450129705744</v>
+        <v>898.5039869983102</v>
       </c>
       <c r="Y22" t="n">
-        <v>527.3450129705744</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6002,16 +6002,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341676</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1029.666285013068</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="C25" t="n">
-        <v>860.7301020851612</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="D25" t="n">
-        <v>710.6134626728254</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>297.590641763986</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,13 +6163,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
@@ -6178,19 +6178,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>1298.996260473455</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W25" t="n">
-        <v>1298.996260473455</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X25" t="n">
-        <v>1071.006709575438</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y25" t="n">
-        <v>1029.666285013068</v>
+        <v>465.7659634441654</v>
       </c>
     </row>
     <row r="26">
@@ -6227,7 +6227,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6254,7 +6254,7 @@
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2302.237516093322</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2507.259996875531</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.155393916677</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916677</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916677</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916677</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916677</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916677</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799429</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471258</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974673</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.48306298007</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585753</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557909</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014294</v>
+        <v>1387.841167119735</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929847</v>
+        <v>1387.841167119735</v>
       </c>
       <c r="T28" t="n">
-        <v>4437.149147719352</v>
+        <v>1387.841167119735</v>
       </c>
       <c r="U28" t="n">
-        <v>4437.149147719352</v>
+        <v>1098.712528333293</v>
       </c>
       <c r="V28" t="n">
-        <v>4182.464659513465</v>
+        <v>844.0280401274061</v>
       </c>
       <c r="W28" t="n">
-        <v>3893.047489476505</v>
+        <v>554.6108700904456</v>
       </c>
       <c r="X28" t="n">
-        <v>3665.057938578488</v>
+        <v>326.6213191924282</v>
       </c>
       <c r="Y28" t="n">
-        <v>3459.155393916677</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643324</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L30" t="n">
-        <v>901.6749225845922</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977054</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.905696641086</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C31" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D31" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E31" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
         <v>507.4972331799365</v>
@@ -6646,25 +6646,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.210845262961</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>820.5263570570741</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>820.5263570570741</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>820.5263570570741</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y31" t="n">
-        <v>820.5263570570741</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514058</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L33" t="n">
-        <v>901.6749225845922</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977054</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.905696641086</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6874,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028583</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,34 +7002,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>991.0842369787848</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C37" t="n">
-        <v>822.1480540508779</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
@@ -7123,22 +7123,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557903</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557903</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.499100520942</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.499100520942</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y37" t="n">
-        <v>991.0842369787848</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7160,25 +7160,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7187,37 +7187,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115523</v>
+        <v>709.4934589365137</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059517</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>426.144983081245</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>426.144983081245</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>874.9271131227924</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V40" t="n">
-        <v>874.9271131227924</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W40" t="n">
-        <v>874.9271131227924</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X40" t="n">
-        <v>646.9375622247751</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>426.144983081245</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7388,40 +7388,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643324</v>
@@ -7433,7 +7433,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231265</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>434.3285960683722</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
         <v>507.4972331799365</v>
@@ -7597,22 +7597,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609669</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V43" t="n">
-        <v>731.31772835508</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W43" t="n">
-        <v>441.9005583181194</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201021</v>
+        <v>836.7696400421421</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>615.977060898612</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>644.675512255521</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>714.6010158349783</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C46" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D46" t="n">
-        <v>395.5481934947357</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839242001</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688115</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799408</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471237</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974671</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980068</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585751</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="R46" t="n">
-        <v>1392.990929335807</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="S46" t="n">
-        <v>1193.070919251359</v>
+        <v>1298.996260473459</v>
       </c>
       <c r="T46" t="n">
-        <v>969.2855040408651</v>
+        <v>1075.210845262965</v>
       </c>
       <c r="U46" t="n">
-        <v>969.2855040408651</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>714.6010158349783</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>714.6010158349783</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>714.6010158349783</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y46" t="n">
-        <v>714.6010158349783</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747117</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270183</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992649</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8772,7 +8772,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>29.47535963978139</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445216</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>52.49733361305221</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445216</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711621</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>52.49733361305221</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445216</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>234.411650950316</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776746</v>
+        <v>176.7176547498446</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,13 +10914,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445216</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>234.411650950316</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23470,19 +23470,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>36.40879619531358</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>213.4588326383702</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23653,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>7.0434634628173</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>91.20511990817778</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23938,7 +23938,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>66.84279123392938</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,25 +24127,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.4355620216043405</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24184,16 +24184,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>33.02793155579133</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>60.96325903114494</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>177.6576330353488</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>14.74113413690179</v>
+        <v>140.38829626481</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.5593647606379</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24886,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>79.43092547709092</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25123,7 +25123,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338565</v>
+        <v>103.0576765518768</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,22 +25363,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>33.0884962179943</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.353938445359006</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25552,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>99.8896742411124</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,16 +25606,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25837,10 +25837,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>108.8451328388532</v>
       </c>
       <c r="Y43" t="n">
-        <v>103.0576765518768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,13 +26023,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.098264593917975</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,16 +26077,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338119</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>876999.4522520979</v>
+        <v>876999.452252098</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.3243240301</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240301</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.3243240297</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.3243240301</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>830125.3243240302</v>
+        <v>830125.3243240298</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240298</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.32432403</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516045</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516048</v>
@@ -26323,37 +26323,37 @@
         <v>566992.1366196779</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.136619678</v>
       </c>
       <c r="G2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.136619678</v>
       </c>
       <c r="H2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="I2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="J2" t="n">
         <v>566992.1366196781</v>
       </c>
       <c r="K2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="L2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="M2" t="n">
+        <v>566992.1366196777</v>
+      </c>
+      <c r="N2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="O2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="P2" t="n">
         <v>566992.1366196779</v>
-      </c>
-      <c r="L2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="O2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="P2" t="n">
-        <v>566992.1366196778</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.846656682071625e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925933</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852684</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852684</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.3647902992</v>
+        <v>29303.5455523022</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029914</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230226</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029919</v>
+        <v>29303.54555230222</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029918</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230224</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340951</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254590.7726116179</v>
+        <v>-252062.4514481755</v>
       </c>
       <c r="C6" t="n">
-        <v>335377.1066029268</v>
+        <v>337905.4277663692</v>
       </c>
       <c r="D6" t="n">
-        <v>335377.1066029266</v>
+        <v>337905.4277663692</v>
       </c>
       <c r="E6" t="n">
-        <v>-81493.59059623377</v>
+        <v>-79458.77135823711</v>
       </c>
       <c r="F6" t="n">
-        <v>443666.4458806622</v>
+        <v>445701.2651186591</v>
       </c>
       <c r="G6" t="n">
-        <v>443666.445880662</v>
+        <v>445701.2651186591</v>
       </c>
       <c r="H6" t="n">
-        <v>443666.445880662</v>
+        <v>445701.265118659</v>
       </c>
       <c r="I6" t="n">
-        <v>443666.4458806622</v>
+        <v>445701.2651186587</v>
       </c>
       <c r="J6" t="n">
-        <v>267243.2266880693</v>
+        <v>269278.0459260658</v>
       </c>
       <c r="K6" t="n">
-        <v>443666.445880662</v>
+        <v>445701.2651186592</v>
       </c>
       <c r="L6" t="n">
-        <v>443666.4458806618</v>
+        <v>445701.2651186591</v>
       </c>
       <c r="M6" t="n">
-        <v>308865.4306468248</v>
+        <v>310900.2498848217</v>
       </c>
       <c r="N6" t="n">
-        <v>443666.445880662</v>
+        <v>445701.2651186591</v>
       </c>
       <c r="O6" t="n">
-        <v>443666.445880662</v>
+        <v>445701.2651186591</v>
       </c>
       <c r="P6" t="n">
-        <v>443666.4458806619</v>
+        <v>445701.265118659</v>
       </c>
     </row>
   </sheetData>
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170871</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541004</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545562</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26814,10 +26814,10 @@
         <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26826,10 +26826,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>254.8519103109223</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>111.5813117178628</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>120.0959683771598</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>164.3404076190907</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>128.2387900191167</v>
+        <v>39.0332792153128</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>37.93403755736594</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27825,16 +27825,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.10055196531528</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>339.5382092338685</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>13.54377073327703</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853694</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>86.00330854358722</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,7 +31282,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31355,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31397,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.167479908158</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405371</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119869</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633809</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473561</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472038</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141118</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188924</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396486</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736703</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034988</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619159</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078619</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813583</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302248</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175855</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383811</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678015</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315615</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181312</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.895655249224</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530455</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338905</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328925</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713963</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850087</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873159</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35504,7 +35504,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016555612</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>117.4883924248555</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.214186879935</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>137.9476282330529</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>334.8610358541604</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303305</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109073</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>137.9476282330529</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>334.8610358541604</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>384.9870895382553</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560244</v>
@@ -37400,7 +37400,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>537.666887533699</v>
+        <v>425.975359705869</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504664</v>
@@ -37634,13 +37634,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330529</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005179</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38096,7 +38096,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>384.9870895382552</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560244</v>
@@ -38111,7 +38111,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556988</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2326207.385666833</v>
+        <v>2401737.055331639</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -659,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>352.84380622259</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>295.2947340238487</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -859,22 +861,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>9.27559683049698</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>54.24424573300413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>238.2497417292103</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>347.2046594407408</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>110.6814354608464</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5.176928316107442</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>291.0318209494281</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>9.702759483544446</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1312,7 +1314,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>83.40026923252979</v>
       </c>
       <c r="W10" t="n">
-        <v>200.5196897930038</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>210.968521252134</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>12.25082275066701</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>195.0322324903996</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>119.088167246258</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2056,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>237.3965091869248</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2239,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>84.86646606374094</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>185.5567217963035</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2491,10 +2493,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>87.95056933639118</v>
+        <v>88.40546239687022</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>78.1963570872848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>118.4898845065123</v>
+        <v>130.7796634003494</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710093</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,16 +3082,16 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>122.6519788371604</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3475,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>164.3650309254209</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>192.6211591710428</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>116.864522550184</v>
+        <v>88.30692799139906</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151962</v>
+        <v>235.2707607354173</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1139.146815977588</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C2" t="n">
-        <v>770.1842990371763</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D2" t="n">
-        <v>770.1842990371763</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>770.1842990371763</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1915.885988017521</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>1525.74665604171</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>418.6523285934727</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C4" t="n">
-        <v>249.7161456655658</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
         <v>99.5995062532301</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005476</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005476</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y4" t="n">
-        <v>418.6523285934727</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.603060210037</v>
+        <v>1074.547708327364</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>705.5851913869521</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>705.5851913869521</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>705.5851913869521</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>294.5992865973446</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1851.286880367297</v>
       </c>
       <c r="Y5" t="n">
-        <v>1620.202900274159</v>
+        <v>1461.147548391486</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,10 +4643,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4665,22 +4667,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>471.4038777286581</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="C7" t="n">
-        <v>471.4038777286581</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="D7" t="n">
-        <v>359.6044479702274</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>353.2494858105067</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>353.2494858105067</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>195.5011132430369</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>59.17220234168511</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>471.4038777286581</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>471.4038777286581</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1206.080506218543</v>
+        <v>1920.918182229334</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781315</v>
+        <v>1920.918182229334</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>1562.652483622583</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1176.864231024339</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>765.8783262347313</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>347.9145181329181</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036446</v>
@@ -4802,19 +4804,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2356.285436519557</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.819678258477</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y8" t="n">
-        <v>1592.680346282665</v>
+        <v>1920.918182229334</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C10" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D10" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E10" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F10" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4984,28 +4986,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942404</v>
+        <v>614.4693688655818</v>
       </c>
       <c r="W10" t="n">
-        <v>348.0202652891861</v>
+        <v>614.4693688655818</v>
       </c>
       <c r="X10" t="n">
-        <v>348.0202652891861</v>
+        <v>614.4693688655818</v>
       </c>
       <c r="Y10" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="11">
@@ -5021,43 +5023,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5127,7 +5129,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>973.0255547109412</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W13" t="n">
-        <v>1387.841167119728</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X13" t="n">
-        <v>1375.466598684711</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>1154.674019541181</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5257,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5309,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>542.1367719529251</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5467,19 +5469,19 @@
         <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>990.9189019944725</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V16" t="n">
-        <v>990.9189019944725</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W16" t="n">
-        <v>990.9189019944725</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="X16" t="n">
-        <v>762.9293510964552</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="Y16" t="n">
-        <v>542.1367719529251</v>
+        <v>523.8169520164281</v>
       </c>
     </row>
     <row r="17">
@@ -5495,25 +5497,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514088</v>
@@ -5525,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5592,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5704,16 +5706,16 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5744,7 +5746,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5777,25 +5779,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.072954880832</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241864</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881687978</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799271</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471098</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974657</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980054</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585737</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557893</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119719</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035271</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.921157035271</v>
+        <v>1413.192567463215</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.921157035271</v>
+        <v>1124.063928676773</v>
       </c>
       <c r="V22" t="n">
-        <v>1187.921157035271</v>
+        <v>869.3794404708858</v>
       </c>
       <c r="W22" t="n">
-        <v>898.5039869983102</v>
+        <v>579.9622704339251</v>
       </c>
       <c r="X22" t="n">
-        <v>898.5039869983102</v>
+        <v>579.9622704339251</v>
       </c>
       <c r="Y22" t="n">
-        <v>711.072954880832</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5968,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6020,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6069,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>465.7659634441654</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="C25" t="n">
-        <v>465.7659634441654</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="D25" t="n">
-        <v>465.7659634441654</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="E25" t="n">
-        <v>465.7659634441654</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="F25" t="n">
-        <v>465.7659634441654</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="G25" t="n">
-        <v>297.590641763986</v>
+        <v>186.5155383258113</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V25" t="n">
-        <v>755.183133481126</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W25" t="n">
-        <v>465.7659634441654</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="X25" t="n">
-        <v>465.7659634441654</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="Y25" t="n">
-        <v>465.7659634441654</v>
+        <v>354.6908600059907</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,37 +6223,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1632.773754790662</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>2302.237516093322</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2507.259996875531</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799429</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471258</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974673</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.48306298007</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585753</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557909</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119735</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119735</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119735</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.712528333293</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>844.0280401274061</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>554.6108700904456</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>326.6213191924282</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>233.7852434110083</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>644.675512255521</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619851</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028589</v>
+        <v>3926.422678879032</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028589</v>
+        <v>3757.486495951126</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028589</v>
+        <v>3757.486495951126</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028589</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028589</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028589</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>1379.229518531123</v>
+        <v>4728.753902912929</v>
       </c>
       <c r="T31" t="n">
-        <v>1379.229518531123</v>
+        <v>4504.968487702435</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.100879744681</v>
+        <v>4215.839848915993</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>4215.839848915993</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>3926.422678879032</v>
       </c>
       <c r="X31" t="n">
-        <v>318.009670603816</v>
+        <v>3926.422678879032</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028589</v>
+        <v>3926.422678879032</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6686,19 +6688,19 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514088</v>
@@ -6719,31 +6721,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>233.7852434110083</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>644.675512255521</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619851</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>731.31772835508</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>441.9005583181194</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>318.009670603816</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6971,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>644.675512255521</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619851</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.3337308726216</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7099,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609669</v>
+        <v>1332.890986794851</v>
       </c>
       <c r="V37" t="n">
-        <v>731.31772835508</v>
+        <v>1332.890986794851</v>
       </c>
       <c r="W37" t="n">
-        <v>441.9005583181194</v>
+        <v>1043.47381675789</v>
       </c>
       <c r="X37" t="n">
-        <v>247.3337308726216</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="Y37" t="n">
-        <v>247.3337308726216</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7153,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7175,25 +7177,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>709.4934589365137</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1016.813592216475</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1346.676219880508</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183167</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,28 +7350,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
         <v>97.21709146028584</v>
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,31 +7402,31 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
@@ -7433,28 +7435,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>233.7852434110083</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>644.675512255521</v>
+        <v>339.7502131046252</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619851</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>434.3285960683722</v>
+        <v>4058.219498354872</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404653</v>
+        <v>3889.283315426965</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404653</v>
+        <v>3889.283315426965</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404653</v>
+        <v>3889.283315426965</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404653</v>
+        <v>3889.283315426965</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557903</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352016</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150552</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="X43" t="n">
-        <v>836.7696400421421</v>
+        <v>4460.660542328642</v>
       </c>
       <c r="Y43" t="n">
-        <v>615.977060898612</v>
+        <v>4239.867963185112</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,31 +7639,31 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899128</v>
@@ -7670,28 +7672,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028589</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028589</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028589</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028589</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028589</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839242001</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688115</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799408</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471237</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974671</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980068</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585751</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557907</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557907</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473459</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262965</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>4399.42192473772</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>4144.737436531834</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>3855.320266494873</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028589</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028589</v>
+        <v>3627.330715596856</v>
       </c>
     </row>
   </sheetData>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9003,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9638,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>29.47535963978139</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>96.0374492781462</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>96.0374492781462</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>234.411650950316</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,10 +10907,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>176.7176547498446</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11136,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>96.0374492781462</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>52.49733361305246</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>75.26883114644335</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>213.4588326383702</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,19 +23709,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>91.20511990817778</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>99.49648610583681</v>
       </c>
     </row>
     <row r="17">
@@ -23944,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>48.84084321165253</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>136.6810949946483</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>33.02793155579133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>60.96325903114494</v>
+        <v>60.50836597066591</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>140.38829626481</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24886,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>79.43092547709092</v>
+        <v>67.14114658325389</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25123,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>103.0576765518768</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25363,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>121.8723214731564</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>33.0884962179943</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25597,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25843,13 +25845,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>108.8451328388532</v>
+        <v>137.4027273976381</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26071,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338119</v>
+        <v>50.96659166316002</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>830125.3243240301</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>830125.3243240297</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>830125.3243240301</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516048</v>
@@ -26320,40 +26322,40 @@
         <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="F2" t="n">
+        <v>566992.1366196777</v>
+      </c>
+      <c r="G2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="H2" t="n">
         <v>566992.1366196779</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="J2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="K2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="G2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="M2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="N2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="O2" t="n">
         <v>566992.1366196778</v>
       </c>
-      <c r="I2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>566992.1366196781</v>
-      </c>
-      <c r="K2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="L2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="O2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="P2" t="n">
-        <v>566992.1366196779</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925933</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,37 +26429,37 @@
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.5455523022</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230226</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230222</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230224</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26491,25 +26493,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-252062.4514481755</v>
+        <v>-252062.4514481754</v>
       </c>
       <c r="C6" t="n">
-        <v>337905.4277663692</v>
+        <v>337905.4277663691</v>
       </c>
       <c r="D6" t="n">
-        <v>337905.4277663692</v>
+        <v>337905.4277663691</v>
       </c>
       <c r="E6" t="n">
-        <v>-79458.77135823711</v>
+        <v>-79458.77135823686</v>
       </c>
       <c r="F6" t="n">
+        <v>445701.2651186587</v>
+      </c>
+      <c r="G6" t="n">
+        <v>445701.2651186592</v>
+      </c>
+      <c r="H6" t="n">
+        <v>445701.2651186589</v>
+      </c>
+      <c r="I6" t="n">
+        <v>445701.2651186592</v>
+      </c>
+      <c r="J6" t="n">
+        <v>269278.045926066</v>
+      </c>
+      <c r="K6" t="n">
+        <v>445701.265118659</v>
+      </c>
+      <c r="L6" t="n">
+        <v>445701.2651186592</v>
+      </c>
+      <c r="M6" t="n">
+        <v>310900.2498848218</v>
+      </c>
+      <c r="N6" t="n">
+        <v>445701.2651186589</v>
+      </c>
+      <c r="O6" t="n">
+        <v>445701.2651186588</v>
+      </c>
+      <c r="P6" t="n">
         <v>445701.2651186591</v>
-      </c>
-      <c r="G6" t="n">
-        <v>445701.2651186591</v>
-      </c>
-      <c r="H6" t="n">
-        <v>445701.265118659</v>
-      </c>
-      <c r="I6" t="n">
-        <v>445701.2651186587</v>
-      </c>
-      <c r="J6" t="n">
-        <v>269278.0459260658</v>
-      </c>
-      <c r="K6" t="n">
-        <v>445701.2651186592</v>
-      </c>
-      <c r="L6" t="n">
-        <v>445701.2651186591</v>
-      </c>
-      <c r="M6" t="n">
-        <v>310900.2498848217</v>
-      </c>
-      <c r="N6" t="n">
-        <v>445701.2651186591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>445701.2651186591</v>
-      </c>
-      <c r="P6" t="n">
-        <v>445701.265118659</v>
       </c>
     </row>
   </sheetData>
@@ -26744,10 +26746,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26759,25 +26761,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26811,13 +26813,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26826,10 +26828,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>12.4290855484175</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>111.5813117178628</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27579,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>277.0062774114808</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>164.3404076190907</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>175.5344282915847</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27667,22 +27669,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>39.0332792153128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>37.93403755736594</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27794,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>40.02303087242955</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27825,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>32.89095181492905</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27913,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>339.5382092338685</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28032,7 +28034,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>168.7373740912982</v>
       </c>
       <c r="W10" t="n">
-        <v>86.00330854358722</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35267,10 +35269,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,16 +35497,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016555612</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36358,7 +36360,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36437,7 +36439,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36452,7 +36454,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36595,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>117.4883924248555</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.214186879935</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.9476282330529</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>137.9476282330529</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>384.9870895382553</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>425.975359705869</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>137.9476282330529</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>203.0727722009917</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556988</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2401737.055331639</v>
+        <v>2394720.040439928</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>352.84380622259</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>23.40477905205531</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>89.80559584836469</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>9.27559683049698</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>158.4785919752551</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>238.2497417292103</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>153.0231793608012</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>5.176928316107442</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>168.4813780479778</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>291.0318209494281</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>83.40026923252979</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>210.968521252134</v>
+        <v>277.0592960537902</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>89.90384136151349</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>119.088167246258</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>237.3965091869248</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>84.86646606374094</v>
+        <v>170.5809693952297</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>88.40546239687022</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151918</v>
+        <v>2.499196759841304</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>130.7796634003494</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>91.94988401775056</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>164.3650309254209</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3562,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>163.8404319477282</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>88.30692799139906</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>235.2707607354173</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2310.5492509541</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="C2" t="n">
-        <v>1954.141365880777</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1027.824306174799</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>642.0360535765544</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>231.0501487869469</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4363,19 +4363,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y2" t="n">
-        <v>2697.149091018222</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>607.9993419809001</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810048</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="U4" t="n">
-        <v>99.5995062532301</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="V4" t="n">
-        <v>99.5995062532301</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="W4" t="n">
-        <v>99.5995062532301</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="X4" t="n">
-        <v>99.5995062532301</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.5995062532301</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1074.547708327364</v>
+        <v>962.1194880117303</v>
       </c>
       <c r="C5" t="n">
-        <v>705.5851913869521</v>
+        <v>593.1569710713186</v>
       </c>
       <c r="D5" t="n">
-        <v>705.5851913869521</v>
+        <v>234.8912724645681</v>
       </c>
       <c r="E5" t="n">
-        <v>705.5851913869521</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>294.5992865973446</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036446</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.752638628377</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.752638628377</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="X5" t="n">
-        <v>1851.286880367297</v>
+        <v>1738.858660051664</v>
       </c>
       <c r="Y5" t="n">
-        <v>1461.147548391486</v>
+        <v>1348.719328075852</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084171</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="C7" t="n">
-        <v>500.1394333084171</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="D7" t="n">
-        <v>500.1394333084171</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="E7" t="n">
-        <v>500.1394333084171</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="F7" t="n">
-        <v>353.2494858105067</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="G7" t="n">
-        <v>353.2494858105067</v>
+        <v>344.8407607629296</v>
       </c>
       <c r="H7" t="n">
-        <v>195.5011132430369</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>59.17220234168511</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036446</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084171</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084171</v>
+        <v>513.8405610245972</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.918182229334</v>
+        <v>1017.998017761265</v>
       </c>
       <c r="C8" t="n">
-        <v>1920.918182229334</v>
+        <v>649.0355008208537</v>
       </c>
       <c r="D8" t="n">
-        <v>1562.652483622583</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>1176.864231024339</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>765.8783262347313</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>347.9145181329181</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036446</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205145</v>
+        <v>2168.202948062279</v>
       </c>
       <c r="X8" t="n">
-        <v>2311.057514205145</v>
+        <v>1794.737189801199</v>
       </c>
       <c r="Y8" t="n">
-        <v>1920.918182229334</v>
+        <v>1404.597857825387</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>393.6767897220517</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>393.6767897220517</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>393.6767897220517</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220517</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>614.4693688655818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>614.4693688655818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>614.4693688655818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
@@ -5129,7 +5129,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>862.1113288466635</v>
+        <v>1219.058395756094</v>
       </c>
       <c r="V13" t="n">
-        <v>607.4268406407766</v>
+        <v>964.3739075502072</v>
       </c>
       <c r="W13" t="n">
-        <v>318.0096706038159</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>674.9567375132466</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5293,37 +5293,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>523.8169520164281</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C16" t="n">
-        <v>523.8169520164281</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D16" t="n">
-        <v>523.8169520164281</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488382</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>644.1080300429513</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W16" t="n">
-        <v>644.1080300429513</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="X16" t="n">
-        <v>644.1080300429513</v>
+        <v>727.1135926675569</v>
       </c>
       <c r="Y16" t="n">
-        <v>523.8169520164281</v>
+        <v>506.3210135240267</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5503,22 +5503,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5527,37 +5527,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5676,13 +5676,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,31 +5691,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>835.416391538794</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,34 +5752,34 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C22" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5913,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1413.192567463215</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="U22" t="n">
-        <v>1124.063928676773</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V22" t="n">
-        <v>869.3794404708858</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W22" t="n">
-        <v>579.9622704339251</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X22" t="n">
-        <v>579.9622704339251</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y22" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,43 +5974,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>354.6908600059907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>354.6908600059907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>354.6908600059907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>354.6908600059907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>354.6908600059907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>186.5155383258113</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>898.7925182488382</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>644.1080300429513</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>354.6908600059907</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>354.6908600059907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>354.6908600059907</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6226,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1185.396715863723</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>930.7122276578364</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>641.2950576208757</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
     <row r="29">
@@ -6460,28 +6460,28 @@
         <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3926.422678879032</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C31" t="n">
-        <v>3757.486495951126</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D31" t="n">
-        <v>3757.486495951126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4728.753902912929</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4504.968487702435</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>4215.839848915993</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>4215.839848915993</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>3926.422678879032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X31" t="n">
-        <v>3926.422678879032</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y31" t="n">
-        <v>3926.422678879032</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="32">
@@ -6691,10 +6691,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028562</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6891,19 +6891,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1332.890986794851</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1332.890986794851</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>1043.47381675789</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>815.4842658598729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>594.6916867163428</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7186,16 +7186,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>933.2171425274998</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>643.7999724905393</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,19 +7423,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>339.7502131046252</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4058.219498354872</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4549.859459491671</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4549.859459491671</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>4549.859459491671</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>4549.859459491671</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>4549.859459491671</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>4460.660542328642</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>4239.867963185112</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4637.069157803799</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>4399.42192473772</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>4144.737436531834</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>3855.320266494873</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>3627.330715596856</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>29.47535963978268</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>29.47535963978268</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>52.49733361305246</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>75.26883114644335</v>
+        <v>9.178056344787137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>89.92813882042381</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>99.49648610583681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.84084321165253</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>136.6810949946483</v>
+        <v>50.96659166315959</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>60.50836597066591</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338557</v>
+        <v>283.738155638736</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>67.14114658325389</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>194.5731143188405</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>121.8723214731564</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>88.29721137609977</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>137.4027273976381</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>50.96659166316002</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240301</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>830125.3243240301</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240298</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="12">
@@ -26316,7 +26316,7 @@
         <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516048</v>
@@ -26325,34 +26325,34 @@
         <v>566992.1366196781</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.136619678</v>
       </c>
       <c r="G2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="H2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.136619678</v>
       </c>
       <c r="I2" t="n">
         <v>566992.1366196781</v>
       </c>
       <c r="J2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="K2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="L2" t="n">
-        <v>566992.1366196782</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="M2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="N2" t="n">
         <v>566992.1366196779</v>
       </c>
       <c r="O2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="P2" t="n">
         <v>566992.1366196781</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
@@ -26456,10 +26456,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26478,22 +26478,22 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-252062.4514481754</v>
       </c>
       <c r="C6" t="n">
-        <v>337905.4277663691</v>
+        <v>337905.4277663692</v>
       </c>
       <c r="D6" t="n">
-        <v>337905.4277663691</v>
+        <v>337905.4277663692</v>
       </c>
       <c r="E6" t="n">
-        <v>-79458.77135823686</v>
+        <v>-80433.36261795858</v>
       </c>
       <c r="F6" t="n">
-        <v>445701.2651186587</v>
+        <v>444726.6738589371</v>
       </c>
       <c r="G6" t="n">
-        <v>445701.2651186592</v>
+        <v>444726.6738589373</v>
       </c>
       <c r="H6" t="n">
-        <v>445701.2651186589</v>
+        <v>444726.6738589375</v>
       </c>
       <c r="I6" t="n">
-        <v>445701.2651186592</v>
+        <v>444726.6738589376</v>
       </c>
       <c r="J6" t="n">
-        <v>269278.045926066</v>
+        <v>268303.4546663443</v>
       </c>
       <c r="K6" t="n">
-        <v>445701.265118659</v>
+        <v>444726.6738589376</v>
       </c>
       <c r="L6" t="n">
-        <v>445701.2651186592</v>
+        <v>444726.6738589376</v>
       </c>
       <c r="M6" t="n">
-        <v>310900.2498848218</v>
+        <v>309925.6586251</v>
       </c>
       <c r="N6" t="n">
-        <v>445701.2651186589</v>
+        <v>444726.6738589372</v>
       </c>
       <c r="O6" t="n">
-        <v>445701.2651186588</v>
+        <v>444726.6738589372</v>
       </c>
       <c r="P6" t="n">
-        <v>445701.2651186591</v>
+        <v>444726.6738589375</v>
       </c>
     </row>
   </sheetData>
@@ -26746,22 +26746,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>12.4290855484175</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>390.3793909687397</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>122.3399431016542</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.0062774114808</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27621,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>223.4517780970066</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>175.5344282915847</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27669,13 +27669,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>3.147709480993939</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>40.02303087242955</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>186.2016635727051</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>32.89095181492905</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>168.7373740912982</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37797,7 +37797,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>203.0727722009917</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
@@ -37876,10 +37876,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38034,7 +38034,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2394720.040439928</v>
+        <v>2399659.303288959</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>23.40477905205531</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>108.9701216524068</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -825,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>129.6781866221426</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>89.80559584836469</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>158.4785919752551</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>35.18155893056283</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.0231793608012</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>142.6271181085172</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>168.4813780479778</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>118.8460297402135</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>32.23714933277825</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>277.0592960537902</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.90384136151349</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>273.2836914484941</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056519</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>170.5809693952297</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>141.389894697996</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151922</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2718,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>86.3509775559443</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>2.499196759841304</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>91.94988401775056</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3562,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>135.9622846212856</v>
       </c>
       <c r="V40" t="n">
-        <v>163.8404319477282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>89.27741646322694</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,13 +4194,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>122.65197883716</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1386.090004781549</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>1386.090004781549</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1027.824306174799</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>642.0360535765544</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>231.0501487869469</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2355.87208391096</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2102.110298549051</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>2102.110298549051</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X2" t="n">
-        <v>1386.090004781549</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y2" t="n">
-        <v>1386.090004781549</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C4" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="D4" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="E4" t="n">
-        <v>380.6911546495019</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>607.9993419809001</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X4" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>962.1194880117303</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C5" t="n">
-        <v>593.1569710713186</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D5" t="n">
-        <v>234.8912724645681</v>
+        <v>1304.217875522719</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>918.4296229244749</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>507.4437181348673</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>89.47991003305418</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>89.47991003305418</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312744</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312744</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1738.858660051664</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1348.719328075852</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.8405610245972</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>513.8405610245972</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>344.8407607629296</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245972</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245972</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245972</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245972</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245972</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1017.998017761265</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>649.0355008208537</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224075</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.202948062279</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.737189801199</v>
+        <v>2522.073906861631</v>
       </c>
       <c r="Y8" t="n">
-        <v>1404.597857825387</v>
+        <v>2131.93457488582</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4889,10 +4889,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4950,64 +4950,64 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.9567375132466</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C13" t="n">
-        <v>674.9567375132466</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D13" t="n">
-        <v>524.8400981009108</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185178</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185178</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1219.058395756094</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>964.3739075502072</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W13" t="n">
-        <v>674.9567375132466</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X13" t="n">
-        <v>674.9567375132466</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.9567375132466</v>
+        <v>764.9211061669174</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5275,16 +5275,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5293,37 +5293,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636253</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.509052552801</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="C16" t="n">
-        <v>415.509052552801</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1222.872137781646</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655742</v>
+        <v>1222.872137781646</v>
       </c>
       <c r="W16" t="n">
-        <v>955.1031435655742</v>
+        <v>933.4549677446852</v>
       </c>
       <c r="X16" t="n">
-        <v>727.1135926675569</v>
+        <v>705.4654168466678</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.3210135240267</v>
+        <v>705.4654168466678</v>
       </c>
     </row>
     <row r="17">
@@ -5503,13 +5503,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5530,22 +5530,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
         <v>4262.3578574653</v>
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5676,13 +5676,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,28 +5691,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706323</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336716</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5776,28 +5776,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1326.612261067772</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1037.48362228133</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>782.7991340754431</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>493.3819640384826</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5980,13 +5980,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
@@ -6004,13 +6004,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>838.7979023112816</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>669.8617193833747</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>519.745079971039</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>519.745079971039</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>519.745079971039</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>351.5697582908596</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>1020.446367141521</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6220,7 +6220,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,7 +6229,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6311,16 +6311,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>413.3055067228584</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="C28" t="n">
-        <v>413.3055067228584</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="D28" t="n">
-        <v>413.3055067228584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1185.396715863723</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V28" t="n">
-        <v>930.7122276578364</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W28" t="n">
-        <v>641.2950576208757</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="X28" t="n">
-        <v>413.3055067228584</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="Y28" t="n">
-        <v>413.3055067228584</v>
+        <v>909.3712637033469</v>
       </c>
     </row>
     <row r="29">
@@ -6445,43 +6445,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,46 +6679,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>820.5263570570736</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,7 +6937,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7201,25 +7201,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>415.8104215925219</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C40" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1098.712528333286</v>
+        <v>1137.795214315807</v>
       </c>
       <c r="V40" t="n">
-        <v>933.2171425274998</v>
+        <v>883.1107261099196</v>
       </c>
       <c r="W40" t="n">
-        <v>643.7999724905393</v>
+        <v>883.1107261099196</v>
       </c>
       <c r="X40" t="n">
-        <v>415.8104215925219</v>
+        <v>655.1211752119023</v>
       </c>
       <c r="Y40" t="n">
-        <v>415.8104215925219</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,25 +7399,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7596,22 +7596,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7675,25 +7675,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1408.737062009188</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1184.951646798694</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>447.040877970705</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298102</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776744</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298102</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>147.5948308491591</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>9.178056344787137</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.92813882042381</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>12.95366095008325</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338523</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>50.96659166315959</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>7.523933669540156</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338511</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24606,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>62.26449546226806</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>283.738155638736</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>90.96703739368829</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25125,19 +25125,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>194.5731143188405</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>150.2750677772917</v>
       </c>
       <c r="V40" t="n">
-        <v>88.29721137609977</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>108.6433935203763</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240301</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240301</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
+        <v>595255.2831516051</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516049</v>
       </c>
-      <c r="D2" t="n">
-        <v>595255.2831516048</v>
-      </c>
       <c r="E2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="G2" t="n">
         <v>566992.1366196779</v>
@@ -26337,25 +26337,25 @@
         <v>566992.1366196781</v>
       </c>
       <c r="J2" t="n">
+        <v>566992.1366196777</v>
+      </c>
+      <c r="K2" t="n">
         <v>566992.1366196778</v>
       </c>
-      <c r="K2" t="n">
-        <v>566992.1366196782</v>
-      </c>
       <c r="L2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="M2" t="n">
         <v>566992.1366196778</v>
       </c>
       <c r="N2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="O2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="P2" t="n">
         <v>566992.1366196779</v>
-      </c>
-      <c r="O2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="P2" t="n">
-        <v>566992.1366196781</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26377,7 +26377,7 @@
         <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,40 +26423,40 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230229</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="G4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="G4" t="n">
-        <v>29303.54555230231</v>
-      </c>
       <c r="H4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26472,16 +26472,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-252062.4514481754</v>
+        <v>-252062.4514481753</v>
       </c>
       <c r="C6" t="n">
-        <v>337905.4277663692</v>
+        <v>337905.4277663694</v>
       </c>
       <c r="D6" t="n">
-        <v>337905.4277663692</v>
+        <v>337905.4277663693</v>
       </c>
       <c r="E6" t="n">
-        <v>-80433.36261795858</v>
+        <v>-79556.2304842095</v>
       </c>
       <c r="F6" t="n">
-        <v>444726.6738589371</v>
+        <v>445603.8059926872</v>
       </c>
       <c r="G6" t="n">
-        <v>444726.6738589373</v>
+        <v>445603.8059926868</v>
       </c>
       <c r="H6" t="n">
-        <v>444726.6738589375</v>
+        <v>445603.8059926868</v>
       </c>
       <c r="I6" t="n">
-        <v>444726.6738589376</v>
+        <v>445603.8059926871</v>
       </c>
       <c r="J6" t="n">
-        <v>268303.4546663443</v>
+        <v>269180.5868000936</v>
       </c>
       <c r="K6" t="n">
-        <v>444726.6738589376</v>
+        <v>445603.8059926867</v>
       </c>
       <c r="L6" t="n">
-        <v>444726.6738589376</v>
+        <v>445603.8059926868</v>
       </c>
       <c r="M6" t="n">
-        <v>309925.6586251</v>
+        <v>310802.7907588494</v>
       </c>
       <c r="N6" t="n">
-        <v>444726.6738589372</v>
+        <v>445603.8059926866</v>
       </c>
       <c r="O6" t="n">
-        <v>444726.6738589372</v>
+        <v>445603.8059926871</v>
       </c>
       <c r="P6" t="n">
-        <v>444726.6738589375</v>
+        <v>445603.8059926868</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>390.3793909687397</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>107.478198705251</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>16.75577602442655</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>122.3399431016542</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>223.4517780970066</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>116.7497573142984</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>3.147709480993939</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>69.51842084150172</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>186.2016635727051</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>250.8850709382556</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
